--- a/template_tom/dcap_template_simplified.xlsx
+++ b/template_tom/dcap_template_simplified.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/Dropbox/ff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/github/dcmi/dcap/template_tom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCECBBA3-C982-F249-A79C-4F82BEA75157}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19EB4D-0851-0748-A8E3-DE85DA605C61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="-28340" windowWidth="50700" windowHeight="28340" xr2:uid="{16BE8492-A386-ED43-8C5F-78400B7A4B6C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Entity Description Template</t>
   </si>
@@ -78,12 +78,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>0-</t>
-  </si>
-  <si>
     <t>Property</t>
   </si>
   <si>
@@ -103,12 +97,42 @@
   </si>
   <si>
     <t>http://kcoyle.net</t>
+  </si>
+  <si>
+    <t>1..5</t>
+  </si>
+  <si>
+    <t>1..</t>
+  </si>
+  <si>
+    <t>0..</t>
+  </si>
+  <si>
+    <t>Property Label</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>First-name Last-name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -139,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -239,16 +263,79 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
       <right style="slantDashDot">
         <color auto="1"/>
       </right>
       <top style="slantDashDot">
         <color auto="1"/>
       </top>
-      <bottom style="slantDashDot">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -256,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -273,17 +360,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,223 +695,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947B4FB8-BB64-F748-AD8B-13CD7D1702DB}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="30" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="46" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" s="3"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" s="3"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="3"/>
+      <c r="G8" s="20"/>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="3"/>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="3"/>
+      <c r="G9" s="20"/>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="3"/>
-      <c r="F9" t="s">
+    <row r="10" spans="1:9">
+      <c r="D10" s="3"/>
+      <c r="G10" s="20"/>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="3"/>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="3"/>
+      <c r="I10" s="21">
+        <v>43742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="3"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="D12" s="3"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" s="3"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" s="3"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="3"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="D16" s="3"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="3"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="3"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="3"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="3"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="3"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="3"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="3"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="3"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="3"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="3"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="3"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="3"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="3"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="3"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="3"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="3"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="3"/>
+      <c r="G33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C33" xr:uid="{E1F4203A-0502-804B-AD67-B3877708308C}">
-      <formula1>$G$4:$G$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D33" xr:uid="{E1F4203A-0502-804B-AD67-B3877708308C}">
+      <formula1>$I$4:$I$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{E256EBA9-88BD-2546-B89A-2CBB690C640D}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{E256EBA9-88BD-2546-B89A-2CBB690C640D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G9" numberStoredAsText="1"/>
+    <ignoredError sqref="I9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>